--- a/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.814773530006244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.108971989133258</v>
+        <v>3.108971989133269</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01447494475052418</v>
@@ -649,7 +649,7 @@
         <v>0.06139789954197798</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05267504613427935</v>
+        <v>0.05267504613427955</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.635535342229264</v>
+        <v>-3.630861629072752</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.641717941901111</v>
+        <v>2.802679861581512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6552122542789749</v>
+        <v>0.639448529109154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.092782594685871</v>
+        <v>-2.008993915163405</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04748617270326557</v>
+        <v>-0.04747077970213142</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05588420261040841</v>
+        <v>0.04497789052352558</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.007403482648997771</v>
+        <v>0.007856993866081772</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.0351082497157381</v>
+        <v>-0.03172878070363108</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.56255809509389</v>
+        <v>5.535398344703591</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.44351531413054</v>
+        <v>13.60132723942997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.281495408032219</v>
+        <v>9.133062309481797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.612520450538502</v>
+        <v>7.951324347484912</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07661075004908101</v>
+        <v>0.07567300613497452</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.226301356142915</v>
+        <v>0.2305050994547892</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1212804224317945</v>
+        <v>0.1202752326481625</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1526685343714462</v>
+        <v>0.14304065421216</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.54077441970119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.698517209803508</v>
+        <v>2.69851720980353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07639703205776199</v>
@@ -749,7 +749,7 @@
         <v>0.08544544957801427</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.04171848687877702</v>
+        <v>0.04171848687877737</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.379444703363799</v>
+        <v>0.6767070080448898</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.764244594707254</v>
+        <v>2.399876839198599</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.829441796185607</v>
+        <v>3.014729756144657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.609405910605949</v>
+        <v>-1.450733349651009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02015475557964992</v>
+        <v>0.01000219475828157</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04137241742287517</v>
+        <v>0.03612808834859565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03606402467437773</v>
+        <v>0.03871286016602739</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.02342356155499302</v>
+        <v>-0.02185022344762973</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.214405942625786</v>
+        <v>9.595932253234157</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.28447680204069</v>
+        <v>11.62110641850346</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.64595797437862</v>
+        <v>10.06838223297182</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.640898160090472</v>
+        <v>7.167800118530529</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1414772901778515</v>
+        <v>0.146896507123798</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1780745604882859</v>
+        <v>0.18265006735617</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1436960065426242</v>
+        <v>0.1367572558892129</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.127104890163204</v>
+        <v>0.1125415997279937</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1592641071730405</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6140813740156292</v>
+        <v>-0.6140813740155959</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05506006459632626</v>
@@ -849,7 +849,7 @@
         <v>0.001904533900840976</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.009410414029715134</v>
+        <v>-0.009410414029714625</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.796847499325225</v>
+        <v>-1.963349161985685</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6424101392815994</v>
+        <v>-0.4473424301788135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.760660751754987</v>
+        <v>-4.184245369041792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.037656112190955</v>
+        <v>-4.87859702887686</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02872914895546648</v>
+        <v>-0.02905724406554247</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.008300307115679646</v>
+        <v>-0.006657133750958531</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04431848189539252</v>
+        <v>-0.04875698000480588</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08780719590664929</v>
+        <v>-0.07259912128342245</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.308491569149037</v>
+        <v>8.779678613452063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.789897993058517</v>
+        <v>9.66676511182375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.008839191121435</v>
+        <v>4.019410392351452</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.641500131485699</v>
+        <v>4.82771373299633</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1592909928060706</v>
+        <v>0.1489614290849015</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1612347538597637</v>
+        <v>0.1611310098117522</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04913025539290202</v>
+        <v>0.04933683059540191</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0750252583144414</v>
+        <v>0.07705458065047627</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5331268192053651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8514240352359703</v>
+        <v>0.8514240352359814</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01845965925133107</v>
@@ -949,7 +949,7 @@
         <v>0.006785311865517393</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.01413843705205534</v>
+        <v>0.01413843705205552</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.966022566054126</v>
+        <v>-2.746525724815023</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.463953010070507</v>
+        <v>2.565385057151888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.967519404973449</v>
+        <v>-3.149925904032961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.697780468907371</v>
+        <v>-3.776876842800301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.0430977806921656</v>
+        <v>-0.0392801691605323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03504492050412651</v>
+        <v>0.0343761994478619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03676853864302763</v>
+        <v>-0.03907041763904015</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05803498242854722</v>
+        <v>-0.05937987389931006</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.91097022393936</v>
+        <v>5.623534869965767</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.22038945597954</v>
+        <v>10.4275666949167</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.431045103311495</v>
+        <v>4.619495961985561</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.37071035071122</v>
+        <v>5.063854487038206</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09170735035524494</v>
+        <v>0.08596102469829016</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1464089421805327</v>
+        <v>0.1504374353248251</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05728396064581634</v>
+        <v>0.06046717827430663</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09435305868899513</v>
+        <v>0.08703484202076806</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3989066235438271</v>
+        <v>0.5532434128551464</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.616132979467904</v>
+        <v>4.855256639604904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.044403120220801</v>
+        <v>1.112869828736984</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7859512823983416</v>
+        <v>-1.028426970611082</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.005691941806400449</v>
+        <v>0.008048270227557046</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06897670023178303</v>
+        <v>0.0723102840921217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01321285294038323</v>
+        <v>0.01398855160261</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.01266211383239178</v>
+        <v>-0.01609433930253731</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.045387588760863</v>
+        <v>4.82233602098122</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.185825794334885</v>
+        <v>9.220146913572403</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.047289422225847</v>
+        <v>4.958550865046661</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.850008110520726</v>
+        <v>3.897775528702724</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07571215758711709</v>
+        <v>0.07257561489187474</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1413435331019702</v>
+        <v>0.1431246773008628</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06436409513167946</v>
+        <v>0.06336374746650419</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0634243025044639</v>
+        <v>0.06414226045113501</v>
       </c>
     </row>
     <row r="19">
